--- a/biology/Médecine/Monstre_humain/Monstre_humain.xlsx
+++ b/biology/Médecine/Monstre_humain/Monstre_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un monstre humain désigne, dans le langage courant, un être humain atteint de malformation congénitale, ou d'un désordre génétique, du développement, ou une maladie causant des formes extrêmes de difformité ; Joseph Merrick, dit « l'homme éléphant » étant un exemple représentatif de ce dernier cas. Les « monstres » ont été présentés ou se sont produits dans des spectacles forains, des cirques ou des zoos humains en tant que phénomène de foire ou curiosités médicales. Jugées dégradantes, ces exhibitions ont été interdites en Europe, à la fin du XIXe siècle, elles perdurent aux États-Unis sous le terme de freak show. L'étude des différents cas de monstruosité humaine entre dans le cadre de la tératologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Phénomènes de foire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des « monstres humains » ont parfois servi d'attraction dans les foires notamment aux XIXe et XXe siècles en Europe et aux États-Unis. N'étant pas intégrés dans la société, ils n'avaient souvent pas d'autres choix pour vivre que de s'exhiber comme curiosité anatomique et phénomène de foire. L'interdiction au XIXe siècle en Europe de ces exhibitions considérées comme dégradantes mit fin à ce moyen de subsistance pour certains d'entre eux.
 </t>
@@ -542,9 +556,11 @@
           <t>Hybrides homme-animal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hybrides homme-animal, comme le centaure ou le loup-garou, sont fréquents dans de nombreuses mythologies ou légendes populaires. Les annales médicales ont désigné certains cas de monstruosité humaine comme des exemples d'hybridation homme-animal, sans que des preuves scientifiques de fécondations inter-espèces n'aient jamais été établies[1],[2]. La Laotienne Krao Farini atteinte d'hypertrichose est présentée en 1886 comme une hybride homme-singe.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hybrides homme-animal, comme le centaure ou le loup-garou, sont fréquents dans de nombreuses mythologies ou légendes populaires. Les annales médicales ont désigné certains cas de monstruosité humaine comme des exemples d'hybridation homme-animal, sans que des preuves scientifiques de fécondations inter-espèces n'aient jamais été établies,. La Laotienne Krao Farini atteinte d'hypertrichose est présentée en 1886 comme une hybride homme-singe.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Monstres célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tognina Gonsalvus et son père Petrus Gonsalvus, atteints d'hypertrichose.
 Pasqual Piñón (1889–1929) : Une version de son histoire parle des restes de son frère jumeau mort inutero ; la seconde raconte qu'il souffrait en fait d'une large tumeur bénigne au sommet de la tête, un chef de foire l'aurait fait passer pour une seconde tête en utilisant de la cire. Après sept ans d'exhibition, sa tumeur lui fut retirée.
@@ -609,12 +627,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Littérature
-Spurs de Tod Robbins.
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Spurs de Tod Robbins.
 L'Homme qui rit de Victor Hugo, dont le personnage principal est Gwynplaine et qui fut une inspiration pour le personnage du Joker .
-Notre-Dame de Paris de Victor Hugo, dont le personnage principal est Quasimodo.
-Cinéma
-Plusieurs films ont été consacrés aux monstres et aux réactions qu'ils provoquent, autour du thème de la différence. Freaks (La Monstrueuse Parade, 1932) de Tod Browning et Elephant Man (1980) de David Lynch sont les plus notoires.
+Notre-Dame de Paris de Victor Hugo, dont le personnage principal est Quasimodo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monstre_humain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monstre_humain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Monstre humain dans la culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs films ont été consacrés aux monstres et aux réactions qu'ils provoquent, autour du thème de la différence. Freaks (La Monstrueuse Parade, 1932) de Tod Browning et Elephant Man (1980) de David Lynch sont les plus notoires.
 D'autres films ont été tournés sur le sujet, comme le Mari de la femme à barbe de Marco Ferreri, ou Mask de Peter Bogdanovich.
 L'Assistant du vampire est un film américain réalisé par Paul Weitz en 2008 où les personnages vivent dans un cirque de monstres.
 En 2014 sort la saison 4 de la série américaine American Horror Story baptisé Freak Show (produit par Ryan Murphy) dans laquelle nous suivons la vie d'un cirque de monstres humains des années 50.
